--- a/Team-Data/2012-13/3-23-2012-13.xlsx
+++ b/Team-Data/2012-13/3-23-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
@@ -866,10 +933,10 @@
         <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -878,13 +945,13 @@
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.779</v>
@@ -905,7 +972,7 @@
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -920,16 +987,16 @@
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -950,19 +1017,19 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -980,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58</v>
+        <v>0.588</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.445</v>
@@ -1057,7 +1124,7 @@
         <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
         <v>0.36</v>
@@ -1075,13 +1142,13 @@
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1090,7 +1157,7 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>4.8</v>
@@ -1105,10 +1172,10 @@
         <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1153,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="n">
-        <v>0.232</v>
+        <v>0.235</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,40 +1297,40 @@
         <v>34.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P5" t="n">
         <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T5" t="n">
         <v>40.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V5" t="n">
         <v>13.8</v>
@@ -1278,31 +1345,31 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
         <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1317,13 +1384,13 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -1338,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1359,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
         <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.544</v>
+        <v>0.537</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1415,16 +1482,16 @@
         <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
         <v>16.6</v>
@@ -1433,7 +1500,7 @@
         <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,10 +1512,10 @@
         <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
         <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC6" t="n">
         <v>0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1508,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1526,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1675,13 +1742,13 @@
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
       </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="J9" t="n">
         <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
         <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.696</v>
@@ -1988,7 +2055,7 @@
         <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
         <v>24.3</v>
@@ -2003,7 +2070,7 @@
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
@@ -2012,7 +2079,7 @@
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2149,61 +2216,61 @@
         <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O10" t="n">
         <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.696</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
         <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
         <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB10" t="n">
         <v>94.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-4.7</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2227,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2251,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
@@ -2269,10 +2336,10 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,19 +2389,19 @@
         <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="n">
         <v>17.1</v>
@@ -2355,10 +2422,10 @@
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,25 +2434,25 @@
         <v>4.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2439,13 +2506,13 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2591,19 +2658,19 @@
         <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
         <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>43</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.614</v>
+        <v>0.623</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
@@ -2707,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
         <v>12.9</v>
@@ -2719,16 +2786,16 @@
         <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.8</v>
@@ -2740,22 +2807,22 @@
         <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,13 +2843,13 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2877,25 +2944,25 @@
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N14" t="n">
         <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
         <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
         <v>41.5</v>
@@ -2904,7 +2971,7 @@
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>9.800000000000001</v>
@@ -2913,7 +2980,7 @@
         <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3244,31 +3311,31 @@
         <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3277,7 +3344,7 @@
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>20.1</v>
@@ -3286,13 +3353,13 @@
         <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC16" t="n">
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3304,13 +3371,13 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
@@ -3328,10 +3395,10 @@
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3340,13 +3407,13 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV16" t="n">
         <v>10</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>9</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3364,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3507,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3528,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>8</v>
@@ -3689,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3713,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3847,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3886,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4059,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.618</v>
+        <v>0.612</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
         <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P21" t="n">
         <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
@@ -4181,7 +4248,7 @@
         <v>12.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4196,13 +4263,13 @@
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
@@ -4223,13 +4290,13 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>8</v>
@@ -4241,7 +4308,7 @@
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
@@ -4620,7 +4687,7 @@
         <v>10</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4775,7 +4842,7 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4975,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4993,7 +5060,7 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5169,10 +5236,10 @@
         <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J27" t="n">
         <v>83.59999999999999</v>
@@ -5243,28 +5310,28 @@
         <v>7.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
         <v>11.4</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.7</v>
@@ -5273,28 +5340,28 @@
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC27" t="n">
         <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,7 +5370,7 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5321,16 +5388,16 @@
         <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.442</v>
@@ -5610,16 +5677,16 @@
         <v>21</v>
       </c>
       <c r="N29" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P29" t="n">
         <v>22.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R29" t="n">
         <v>10.9</v>
@@ -5628,10 +5695,10 @@
         <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
         <v>13.6</v>
@@ -5652,19 +5719,19 @@
         <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5706,13 +5773,13 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5721,13 +5788,13 @@
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5858,13 +5925,13 @@
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
@@ -5897,7 +5964,7 @@
         <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>0.362</v>
+        <v>0.368</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,16 +6029,16 @@
         <v>35.6</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
         <v>6.8</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N31" t="n">
         <v>0.366</v>
@@ -5983,16 +6050,16 @@
         <v>20.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
         <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
         <v>22.1</v>
@@ -6004,13 +6071,13 @@
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
@@ -6019,16 +6086,16 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>22</v>
@@ -6040,10 +6107,10 @@
         <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6079,10 +6146,10 @@
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2012-13</t>
+          <t>2013-03-23</t>
         </is>
       </c>
     </row>
